--- a/wind-tax-incentive-6000-simulation.xlsx
+++ b/wind-tax-incentive-6000-simulation.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8040.822153413021</v>
+        <v>8040.768518516471</v>
       </c>
       <c r="C2" t="n">
-        <v>3411.164138625773</v>
+        <v>3411.190969066141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01369427198969659</v>
+        <v>0.04047196221194552</v>
       </c>
       <c r="E2" t="n">
-        <v>50.07975966964712</v>
+        <v>30.393684594444</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7826.638297939518</v>
+        <v>7824.963385130286</v>
       </c>
       <c r="C3" t="n">
-        <v>3183.929922703336</v>
+        <v>3184.027704240655</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.008901732647727308</v>
       </c>
       <c r="E3" t="n">
-        <v>39.83399723417072</v>
+        <v>24.91062428008255</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7550.477796230165</v>
+        <v>7550.178996761928</v>
       </c>
       <c r="C4" t="n">
-        <v>3275.865318180375</v>
+        <v>3275.881505315533</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70454924036385</v>
+        <v>23.70451453115552</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8278.177414996318</v>
+        <v>8278.204815650377</v>
       </c>
       <c r="C5" t="n">
-        <v>2539.822859162374</v>
+        <v>2539.821073228868</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>44.20366153630051</v>
+        <v>25.68900174563363</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6938.264176346432</v>
+        <v>6938.450010669783</v>
       </c>
       <c r="C6" t="n">
-        <v>4179.658167691802</v>
+        <v>4179.577630870619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07757843581789614</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>36.76594229657994</v>
+        <v>21.21557580597796</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8984.031107495479</v>
+        <v>8983.661935673003</v>
       </c>
       <c r="C7" t="n">
-        <v>3258.309110346644</v>
+        <v>3258.333483613274</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.004576139855167666</v>
       </c>
       <c r="E7" t="n">
-        <v>44.21413934186126</v>
+        <v>26.23067665348543</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10894.72664964305</v>
+        <v>10894.71170169112</v>
       </c>
       <c r="C8" t="n">
-        <v>3393.259211047476</v>
+        <v>3393.266728997003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01412518881196746</v>
+        <v>0.02154776407878521</v>
       </c>
       <c r="E8" t="n">
-        <v>63.48977524186335</v>
+        <v>52.06762567335858</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11523.44444678943</v>
+        <v>11523.42647749592</v>
       </c>
       <c r="C9" t="n">
-        <v>4269.571508492711</v>
+        <v>4269.572670083587</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0008515696495848741</v>
       </c>
       <c r="E9" t="n">
-        <v>68.83259921202057</v>
+        <v>57.84360058969427</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13428.30988295073</v>
+        <v>13428.31153650136</v>
       </c>
       <c r="C10" t="n">
-        <v>2868.690017553719</v>
+        <v>2868.689705669582</v>
       </c>
       <c r="D10" t="n">
-        <v>9.939647599554773e-05</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>70.5810391829844</v>
+        <v>59.44346070042479</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14419.20461694858</v>
+        <v>14419.2043002125</v>
       </c>
       <c r="C11" t="n">
-        <v>2065.795555629638</v>
+        <v>2065.795636603642</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.312086629268696e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>103.0935017383584</v>
+        <v>61.88524034829079</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13591.44004002821</v>
+        <v>13591.43996375781</v>
       </c>
       <c r="C12" t="n">
-        <v>3014.559960636591</v>
+        <v>3014.559998090222</v>
       </c>
       <c r="D12" t="n">
-        <v>1.673610675228e-06</v>
+        <v>3.811395042037068e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>71.18690416875108</v>
+        <v>59.3805909919253</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13897.82149351423</v>
+        <v>13897.8220845721</v>
       </c>
       <c r="C13" t="n">
-        <v>2722.178504184459</v>
+        <v>2722.178449643313</v>
       </c>
       <c r="D13" t="n">
-        <v>2.29902535503972e-06</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.7129934192115</v>
+        <v>59.79964771357869</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13472.35287386435</v>
+        <v>13472.35315540429</v>
       </c>
       <c r="C14" t="n">
-        <v>3041.647150196866</v>
+        <v>3041.647115645783</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>70.9014532998842</v>
+        <v>59.16597086659284</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13090.94583765702</v>
+        <v>13090.94597240339</v>
       </c>
       <c r="C15" t="n">
-        <v>3395.054176938611</v>
+        <v>3395.054161576365</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>70.03667964718895</v>
+        <v>58.54065292799478</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13264.05505470238</v>
+        <v>13264.05576048696</v>
       </c>
       <c r="C16" t="n">
-        <v>3160.944940643385</v>
+        <v>3160.944872931397</v>
       </c>
       <c r="D16" t="n">
-        <v>4.649602645319988e-06</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>70.40470517447638</v>
+        <v>58.80436609487347</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12428.43843684154</v>
+        <v>12428.43774097014</v>
       </c>
       <c r="C17" t="n">
-        <v>4049.561584107474</v>
+        <v>4049.561923948009</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0003347474369404767</v>
       </c>
       <c r="E17" t="n">
-        <v>69.11517017163847</v>
+        <v>57.69471961451146</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12142.02891737603</v>
+        <v>12141.99482009401</v>
       </c>
       <c r="C18" t="n">
-        <v>4692.971092950735</v>
+        <v>4692.988153629187</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.01700927294794715</v>
       </c>
       <c r="E18" t="n">
-        <v>68.74276340902108</v>
+        <v>55.54021249204298</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12727.11652077535</v>
+        <v>12727.1163474668</v>
       </c>
       <c r="C19" t="n">
-        <v>4558.883478702056</v>
+        <v>4558.883565450942</v>
       </c>
       <c r="D19" t="n">
-        <v>5.220973113162887e-07</v>
+        <v>8.699534483406403e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>69.30285884349594</v>
+        <v>58.10437190364306</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12487.78769623168</v>
+        <v>12487.78569420903</v>
       </c>
       <c r="C20" t="n">
-        <v>5277.212304097924</v>
+        <v>5277.213345046818</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.001037908009064637</v>
       </c>
       <c r="E20" t="n">
-        <v>68.99503471850005</v>
+        <v>57.80832666134726</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12500.71919097826</v>
+        <v>12500.45071110819</v>
       </c>
       <c r="C21" t="n">
-        <v>5083.280813650227</v>
+        <v>5083.415186928808</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1339680391003171</v>
       </c>
       <c r="E21" t="n">
-        <v>68.40722600737826</v>
+        <v>55.53371710393692</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15495.02756756814</v>
+        <v>15495.10109592695</v>
       </c>
       <c r="C22" t="n">
-        <v>1338.972429195642</v>
+        <v>1338.964059907065</v>
       </c>
       <c r="D22" t="n">
-        <v>3.232942434496302e-06</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>301.9039161058017</v>
+        <v>290.8943598822534</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13655.12542577686</v>
+        <v>13655.12266316496</v>
       </c>
       <c r="C23" t="n">
-        <v>1961.874586786496</v>
+        <v>1961.875964228608</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.001371235649018593</v>
       </c>
       <c r="E23" t="n">
-        <v>70.93353881936862</v>
+        <v>60.04071771178119</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11431.98887183682</v>
+        <v>11431.98498711572</v>
       </c>
       <c r="C24" t="n">
-        <v>2584.011741872305</v>
+        <v>2584.01340343597</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.001607841627415724</v>
       </c>
       <c r="E24" t="n">
-        <v>63.76116553565085</v>
+        <v>52.85380387608556</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9343.10163618238</v>
+        <v>9343.117392061051</v>
       </c>
       <c r="C25" t="n">
-        <v>3258.898488211274</v>
+        <v>3258.89750332694</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>45.31053108450983</v>
+        <v>27.03668729834322</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8180.670837962129</v>
+        <v>8180.670928334739</v>
       </c>
       <c r="C26" t="n">
-        <v>3503.329130103059</v>
+        <v>3503.329097064614</v>
       </c>
       <c r="D26" t="n">
-        <v>3.190291833818471e-05</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>39.0677550599768</v>
+        <v>24.93719903799705</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8445.694362700982</v>
+        <v>8445.694464221186</v>
       </c>
       <c r="C27" t="n">
-        <v>2768.305589794903</v>
+        <v>2768.305542596058</v>
       </c>
       <c r="D27" t="n">
-        <v>4.745665586944773e-05</v>
+        <v>2.937203261997438e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>40.56867505042668</v>
+        <v>25.43429353217806</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7671.609269194579</v>
+        <v>7671.608594654656</v>
       </c>
       <c r="C28" t="n">
-        <v>3328.391427380454</v>
+        <v>3328.391463047738</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>37.88678771560904</v>
+        <v>23.94301037962507</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8023.257573015601</v>
+        <v>8023.257635795349</v>
       </c>
       <c r="C29" t="n">
-        <v>2917.742404503565</v>
+        <v>2917.742382013851</v>
       </c>
       <c r="D29" t="n">
-        <v>2.245839046702442e-05</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>39.47228024247193</v>
+        <v>24.63007242318537</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8723.218393770048</v>
+        <v>8723.218484401188</v>
       </c>
       <c r="C30" t="n">
-        <v>2515.78156019547</v>
+        <v>2515.781518929498</v>
       </c>
       <c r="D30" t="n">
-        <v>4.598851377668657e-05</v>
+        <v>3.265457352168357e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>44.81727990558463</v>
+        <v>25.70435759808584</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8888.322032133927</v>
+        <v>8888.322230581678</v>
       </c>
       <c r="C31" t="n">
-        <v>3448.677889225659</v>
+        <v>3448.677808832363</v>
       </c>
       <c r="D31" t="n">
-        <v>7.856185725257903e-05</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.24308456921932</v>
+        <v>25.96851731621772</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11264.97329958402</v>
+        <v>11264.97500034745</v>
       </c>
       <c r="C32" t="n">
-        <v>3077.026276632127</v>
+        <v>3077.025817006287</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000423360509345736</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>63.7121703184926</v>
+        <v>53.27687521630147</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13574.34675824086</v>
+        <v>13574.34907268881</v>
       </c>
       <c r="C33" t="n">
-        <v>2339.652168033114</v>
+        <v>2339.651087508021</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001072653403391128</v>
+        <v>1.398307516701216e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>71.62163669642125</v>
+        <v>59.80685609550481</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14014.89225300992</v>
+        <v>14014.88233528642</v>
       </c>
       <c r="C34" t="n">
-        <v>2398.117253034657</v>
+        <v>2398.11813733813</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.63647413985311</v>
+        <v>60.24136064937089</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14637.49052421479</v>
+        <v>14637.52371753506</v>
       </c>
       <c r="C35" t="n">
-        <v>1947.507727010972</v>
+        <v>1947.502821056336</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001747027224272314</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>101.8646594574842</v>
+        <v>90.64424452444526</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15220.19032361788</v>
+        <v>15220.18850443217</v>
       </c>
       <c r="C36" t="n">
-        <v>1471.11666903336</v>
+        <v>1471.116766682696</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>311.5988606040175</v>
+        <v>632.3050744249194</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15189.33958436785</v>
+        <v>15189.95196396758</v>
       </c>
       <c r="C37" t="n">
-        <v>1461.701140624358</v>
+        <v>1461.638181799193</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.2019552218269</v>
+        <v>93.14879616617242</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14754.7989223223</v>
+        <v>14754.58604196776</v>
       </c>
       <c r="C38" t="n">
-        <v>1724.199225875407</v>
+        <v>1724.305903517331</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001849952390575802</v>
+        <v>0.1079467426429706</v>
       </c>
       <c r="E38" t="n">
-        <v>102.1775590296295</v>
+        <v>91.18545619654911</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14173.54762371899</v>
+        <v>14173.62198580558</v>
       </c>
       <c r="C39" t="n">
-        <v>2193.452193234541</v>
+        <v>2193.446041327998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001828635974526113</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>74.36563046315943</v>
+        <v>63.37173195321795</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13667.05678576005</v>
+        <v>13667.05640866318</v>
       </c>
       <c r="C40" t="n">
-        <v>2505.943283625131</v>
+        <v>2505.943444906858</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.0001462823096317993</v>
       </c>
       <c r="E40" t="n">
-        <v>71.43537470356233</v>
+        <v>60.4370196751676</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13397.53822462533</v>
+        <v>13397.53935715566</v>
       </c>
       <c r="C41" t="n">
-        <v>2696.461798039411</v>
+        <v>2696.461673126581</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>70.64979788694572</v>
+        <v>59.65188238666959</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13468.80710137388</v>
+        <v>13468.80759910039</v>
       </c>
       <c r="C42" t="n">
-        <v>2756.192898292928</v>
+        <v>2756.192825220504</v>
       </c>
       <c r="D42" t="n">
-        <v>3.328978940257526e-07</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>70.81991167268153</v>
+        <v>59.82177120395556</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13469.04807398882</v>
+        <v>13469.04799562336</v>
       </c>
       <c r="C43" t="n">
-        <v>3043.95192600248</v>
+        <v>3043.9519649616</v>
       </c>
       <c r="D43" t="n">
-        <v>8.686295142877038e-09</v>
+        <v>3.937659441976819e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>70.82002518564762</v>
+        <v>59.82235300215243</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13849.79538197542</v>
+        <v>13849.79530370637</v>
       </c>
       <c r="C44" t="n">
-        <v>3152.204621659656</v>
+        <v>3152.204663205111</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.567891713304238e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>71.7806783975513</v>
+        <v>60.78187893124632</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13754.02550232743</v>
+        <v>13754.02555465545</v>
       </c>
       <c r="C45" t="n">
-        <v>2969.97451639215</v>
+        <v>2969.974512464642</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>71.74681466273155</v>
+        <v>60.74916609716549</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13653.32228999789</v>
+        <v>13653.32278279198</v>
       </c>
       <c r="C46" t="n">
-        <v>2427.677693032981</v>
+        <v>2427.677643908718</v>
       </c>
       <c r="D46" t="n">
-        <v>1.69521605598724e-05</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>71.65601950174084</v>
+        <v>60.65836368039173</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12639.8417924137</v>
+        <v>12639.83962210155</v>
       </c>
       <c r="C47" t="n">
-        <v>2537.159754965461</v>
+        <v>2537.160127542526</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.0002501062049294258</v>
       </c>
       <c r="E47" t="n">
-        <v>70.70710694777014</v>
+        <v>59.70670619241626</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11560.09292625441</v>
+        <v>11560.09303063206</v>
       </c>
       <c r="C48" t="n">
-        <v>2312.90969024576</v>
+        <v>2312.909606701296</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>69.71209059062785</v>
+        <v>58.72307001109919</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10267.32883934726</v>
+        <v>10267.32855182147</v>
       </c>
       <c r="C49" t="n">
-        <v>2332.671184920689</v>
+        <v>2332.67131974781</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.0001345768392096907</v>
       </c>
       <c r="E49" t="n">
-        <v>47.26849079861836</v>
+        <v>29.48292428929393</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9175.1752184045</v>
+        <v>9175.168222918495</v>
       </c>
       <c r="C50" t="n">
-        <v>2513.831386363097</v>
+        <v>2513.831774555876</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2.523096521828537e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>41.26331795817119</v>
+        <v>26.10322915292467</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8653.482700012393</v>
+        <v>8653.479700178574</v>
       </c>
       <c r="C51" t="n">
-        <v>2497.520124234171</v>
+        <v>2497.520298933265</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>8.872794846178772e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>40.23459660037592</v>
+        <v>25.46004862732454</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9297.651541974556</v>
+        <v>9297.644831516494</v>
       </c>
       <c r="C52" t="n">
-        <v>1556.354813413102</v>
+        <v>1556.355213233844</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>44.39398890803962</v>
+        <v>26.61472521289101</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9518.911368878844</v>
+        <v>9518.898596248058</v>
       </c>
       <c r="C53" t="n">
-        <v>1209.100702550816</v>
+        <v>1209.101401870386</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1.879684296278302e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>44.47955123611923</v>
+        <v>27.19560760503126</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9395.914540908185</v>
+        <v>9395.919131897372</v>
       </c>
       <c r="C54" t="n">
-        <v>1409.08321151165</v>
+        <v>1409.08093388144</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002245335381548717</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>44.41540903635671</v>
+        <v>26.83624766097413</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9404.337856562595</v>
+        <v>9404.302308360382</v>
       </c>
       <c r="C55" t="n">
-        <v>1745.69556034536</v>
+        <v>1745.697681972288</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>9.865567360179957e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>44.40019735242362</v>
+        <v>26.85968669414332</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10284.79546738453</v>
+        <v>10284.79530634234</v>
       </c>
       <c r="C56" t="n">
-        <v>1574.204576573823</v>
+        <v>1574.204636838807</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>5.676207802738276e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>48.88851418402733</v>
+        <v>30.06079826375182</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11693.11987586762</v>
+        <v>11693.11501304765</v>
       </c>
       <c r="C57" t="n">
-        <v>1375.880755866082</v>
+        <v>1375.883163007257</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.001822122996542393</v>
       </c>
       <c r="E57" t="n">
-        <v>69.34400052530911</v>
+        <v>58.37214351606566</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12623.28816283333</v>
+        <v>12623.32562741834</v>
       </c>
       <c r="C58" t="n">
-        <v>1614.71193327499</v>
+        <v>1614.709404339014</v>
       </c>
       <c r="D58" t="n">
-        <v>5.142638619712563e-05</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>70.23147662144619</v>
+        <v>59.17231030603955</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13571.55171228253</v>
+        <v>13571.56954517701</v>
       </c>
       <c r="C59" t="n">
-        <v>1430.448513779837</v>
+        <v>1430.447058469149</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>71.253533237829</v>
+        <v>60.30380306234496</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13852.71221578961</v>
+        <v>13852.71915419656</v>
       </c>
       <c r="C60" t="n">
-        <v>1383.28778172036</v>
+        <v>1383.287146498694</v>
       </c>
       <c r="D60" t="n">
-        <v>2.487560684030194e-06</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>71.65154398386107</v>
+        <v>60.30795377114964</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13902.45649890651</v>
+        <v>13902.46283227645</v>
       </c>
       <c r="C61" t="n">
-        <v>1310.543606882753</v>
+        <v>1310.543033349541</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>71.82498597354683</v>
+        <v>60.3350218182045</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13886.03648250142</v>
+        <v>13886.03415757929</v>
       </c>
       <c r="C62" t="n">
-        <v>1063.963496806724</v>
+        <v>1063.96467276618</v>
       </c>
       <c r="D62" t="n">
-        <v>2.067118108536141e-05</v>
+        <v>0.001168486091735386</v>
       </c>
       <c r="E62" t="n">
-        <v>71.78363547450228</v>
+        <v>60.34189921442442</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13897.98343936513</v>
+        <v>13897.98043801872</v>
       </c>
       <c r="C63" t="n">
-        <v>728.0165366510847</v>
+        <v>728.018052262755</v>
       </c>
       <c r="D63" t="n">
-        <v>2.395988037813073e-05</v>
+        <v>0.00150821039754471</v>
       </c>
       <c r="E63" t="n">
-        <v>71.83408975959897</v>
+        <v>60.3523690378026</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13767.97683850648</v>
+        <v>13768.40632936767</v>
       </c>
       <c r="C64" t="n">
-        <v>583.0230858584848</v>
+        <v>582.9655134499503</v>
       </c>
       <c r="D64" t="n">
-        <v>7.555944193177911e-05</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>71.69954315973992</v>
+        <v>335.6480325715389</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13730.60808207844</v>
+        <v>13730.63341917882</v>
       </c>
       <c r="C65" t="n">
-        <v>503.3919436185047</v>
+        <v>503.3899025471217</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>71.72702510705888</v>
+        <v>60.45752499719062</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13828.41172283418</v>
+        <v>13828.43720040774</v>
       </c>
       <c r="C66" t="n">
-        <v>653.5936008881874</v>
+        <v>653.5915030702502</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>71.76278183268825</v>
+        <v>60.51263287960373</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13789.26093553439</v>
+        <v>13789.29216110446</v>
       </c>
       <c r="C67" t="n">
-        <v>1194.744384135375</v>
+        <v>1194.74030099698</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>71.64600217463962</v>
+        <v>1596.125590115418</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13019.95636508282</v>
+        <v>13019.97548437519</v>
       </c>
       <c r="C68" t="n">
-        <v>2611.042884895121</v>
+        <v>2611.040854852539</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00074927310171874</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>70.29141355468701</v>
+        <v>59.56407993225562</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11909.81357820131</v>
+        <v>11909.81805875508</v>
       </c>
       <c r="C69" t="n">
-        <v>3584.185725206942</v>
+        <v>3584.184831356742</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0006958960048953796</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>69.24001700442788</v>
+        <v>58.65915145396147</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10886.28583645665</v>
+        <v>10886.35024889267</v>
       </c>
       <c r="C70" t="n">
-        <v>4082.698366017031</v>
+        <v>4082.68041255573</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01578174575165581</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>62.19576761799556</v>
+        <v>51.11870054857078</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9792.501137880035</v>
+        <v>9792.506826796896</v>
       </c>
       <c r="C71" t="n">
-        <v>4405.495962418172</v>
+        <v>4405.493197722738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002896804693550553</v>
+        <v>0.0001017570992097221</v>
       </c>
       <c r="E71" t="n">
-        <v>45.41918280497518</v>
+        <v>28.95559137896468</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8643.529246347331</v>
+        <v>8643.360006517441</v>
       </c>
       <c r="C72" t="n">
-        <v>4535.632135663132</v>
+        <v>4535.641994731768</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>44.13558752003237</v>
+        <v>28.51725262764489</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8589.799799823537</v>
+        <v>8589.502685293388</v>
       </c>
       <c r="C73" t="n">
-        <v>3529.481217836048</v>
+        <v>3529.497313781954</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>2.01624843730743e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>44.46110533870049</v>
+        <v>26.63971322841164</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8648.700833559684</v>
+        <v>8648.668261666035</v>
       </c>
       <c r="C74" t="n">
-        <v>2548.326381089709</v>
+        <v>2548.33081781685</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>0.0009195975287160689</v>
       </c>
       <c r="E74" t="n">
-        <v>44.89926134043848</v>
+        <v>28.73267020362579</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8143.371698893699</v>
+        <v>8143.359717581719</v>
       </c>
       <c r="C75" t="n">
-        <v>2125.639632179184</v>
+        <v>2125.640257272157</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2.512100448067995e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>40.17750282846399</v>
+        <v>25.2653841592469</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8951.573337517479</v>
+        <v>8951.576120322889</v>
       </c>
       <c r="C76" t="n">
-        <v>1659.425321474022</v>
+        <v>1659.423972276439</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001339668829204162</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>48.28251634372211</v>
+        <v>26.01790295904404</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9076.951193397208</v>
+        <v>9075.839083642277</v>
       </c>
       <c r="C77" t="n">
-        <v>1250.056535171496</v>
+        <v>1250.160911201316</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>5.15124494905858e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>2214.091264445046</v>
+        <v>26.3814479692174</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8888.823582184346</v>
+        <v>8888.825084957989</v>
       </c>
       <c r="C78" t="n">
-        <v>1373.17571042398</v>
+        <v>1373.174989072716</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0007066850314755784</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>44.43050734578993</v>
+        <v>25.88367826085828</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8811.584032591278</v>
+        <v>8811.566865311726</v>
       </c>
       <c r="C79" t="n">
-        <v>1569.432182807866</v>
+        <v>1569.43313137781</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>3.307162307850904e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>44.32170073906074</v>
+        <v>25.76169704676029</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9023.664890587641</v>
+        <v>9023.665360722036</v>
       </c>
       <c r="C80" t="n">
-        <v>1653.334946421397</v>
+        <v>1653.334778835294</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0001628281297335447</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>44.55192886097085</v>
+        <v>26.17649230457125</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9633.57018210464</v>
+        <v>9633.571664932164</v>
       </c>
       <c r="C81" t="n">
-        <v>1540.429568012699</v>
+        <v>1540.429266074127</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0002496330169993207</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>46.8084299324541</v>
+        <v>29.91002957530653</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10462.78759425292</v>
+        <v>10462.78724456357</v>
       </c>
       <c r="C82" t="n">
-        <v>1596.212848523776</v>
+        <v>1596.212733753531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001256907138259935</v>
+        <v>2.166122822984021e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>48.76530637960128</v>
+        <v>37.1390663862546</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11954.24813890227</v>
+        <v>11954.1851600674</v>
       </c>
       <c r="C83" t="n">
-        <v>1000.81038767422</v>
+        <v>1000.814737464555</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.0001023656741031022</v>
       </c>
       <c r="E83" t="n">
-        <v>69.42066711227726</v>
+        <v>58.59164304001164</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12681.15780190029</v>
+        <v>12682.09471160653</v>
       </c>
       <c r="C84" t="n">
-        <v>912.8422448756525</v>
+        <v>912.7302908956029</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>70.4231200580428</v>
+        <v>1220.131057934291</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13031.55799872657</v>
+        <v>13031.56287203148</v>
       </c>
       <c r="C85" t="n">
-        <v>930.4396147698841</v>
+        <v>930.4371816830395</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002384119595376484</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>70.50853901450566</v>
+        <v>59.708920967339</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13058.1824056065</v>
+        <v>13058.30385340406</v>
       </c>
       <c r="C86" t="n">
-        <v>1043.110454951009</v>
+        <v>1043.094071673008</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>879.4403402497327</v>
+        <v>546.5185010892786</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12798.92055783648</v>
+        <v>12798.91281559246</v>
       </c>
       <c r="C87" t="n">
-        <v>1245.086625557652</v>
+        <v>1245.087179244064</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>5.158312383367479e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>70.02969081004552</v>
+        <v>59.15936213880462</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12556.61725138622</v>
+        <v>12556.61922056544</v>
       </c>
       <c r="C88" t="n">
-        <v>1340.381792736241</v>
+        <v>1340.380809532058</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0009549227407466766</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>69.5877287172798</v>
+        <v>58.72813573154392</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12911.73753587624</v>
+        <v>12911.7253482442</v>
       </c>
       <c r="C89" t="n">
-        <v>906.2737170485698</v>
+        <v>906.2746389971078</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1.274595239891878e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>70.00399171304196</v>
+        <v>59.42035270860204</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13272.78097417991</v>
+        <v>13272.76536016555</v>
       </c>
       <c r="C90" t="n">
-        <v>771.2333585273285</v>
+        <v>771.234637988927</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1.560913184470684e-05</v>
       </c>
       <c r="E90" t="n">
-        <v>70.55360149651834</v>
+        <v>59.84362047035039</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12940.66900692856</v>
+        <v>12940.66672821811</v>
       </c>
       <c r="C91" t="n">
-        <v>1594.333114577753</v>
+        <v>1594.333266078945</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>5.697258480276516e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>70.07488984834795</v>
+        <v>59.48722312206149</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12877.09353157413</v>
+        <v>12877.09644440566</v>
       </c>
       <c r="C92" t="n">
-        <v>2119.905103361774</v>
+        <v>2119.903674396141</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001363700650635673</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>69.96941046692669</v>
+        <v>59.33468578209958</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13176.41757320858</v>
+        <v>13176.02265120882</v>
       </c>
       <c r="C93" t="n">
-        <v>2457.924241858834</v>
+        <v>2457.977384558431</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>3.334021837366761e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>1258.188928722404</v>
+        <v>59.60092467566555</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13053.63460580154</v>
+        <v>13053.63584091433</v>
       </c>
       <c r="C94" t="n">
-        <v>2504.364819712386</v>
+        <v>2504.364233639062</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0005739120419332916</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>70.24611203929427</v>
+        <v>59.44477072833828</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12557.04159000879</v>
+        <v>12556.62341946481</v>
       </c>
       <c r="C95" t="n">
-        <v>2093.326511449134</v>
+        <v>2093.376551911801</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2.859477888178101e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>1013.618741400604</v>
+        <v>59.11593524886545</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11495.03636887402</v>
+        <v>11495.03624821428</v>
       </c>
       <c r="C96" t="n">
-        <v>1974.963673869636</v>
+        <v>1974.963729704666</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>2.205900419342358e-05</v>
       </c>
       <c r="E96" t="n">
-        <v>69.2058183245347</v>
+        <v>58.00430583963323</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10104.22832408365</v>
+        <v>10105.11076675817</v>
       </c>
       <c r="C97" t="n">
-        <v>2173.771709049942</v>
+        <v>2173.681018634628</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>46.96470048244889</v>
+        <v>482.459300155191</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9674.54924320747</v>
+        <v>9674.547589234257</v>
       </c>
       <c r="C98" t="n">
-        <v>2009.452379434978</v>
+        <v>2009.452474907611</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>40.95310633987746</v>
+        <v>25.88407084285191</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9193.662353937394</v>
+        <v>9193.663868257179</v>
       </c>
       <c r="C99" t="n">
-        <v>2020.337609958132</v>
+        <v>2020.337506073857</v>
       </c>
       <c r="D99" t="n">
-        <v>3.606840999733553e-05</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>39.65090667399448</v>
+        <v>25.3305745358196</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9430.17598148334</v>
+        <v>9430.175616430044</v>
       </c>
       <c r="C100" t="n">
-        <v>1569.824253627651</v>
+        <v>1569.824330908871</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>5.260868938619318e-05</v>
       </c>
       <c r="E100" t="n">
-        <v>41.23909735868389</v>
+        <v>25.70229326943901</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9940.132868752273</v>
+        <v>9940.13434238107</v>
       </c>
       <c r="C101" t="n">
-        <v>1000.867114984094</v>
+        <v>1000.867016168711</v>
       </c>
       <c r="D101" t="n">
-        <v>1.624743335686339e-05</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>44.32874041028788</v>
+        <v>26.66148635681055</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10132.75613655394</v>
+        <v>10132.75586830727</v>
       </c>
       <c r="C102" t="n">
-        <v>1106.243981792714</v>
+        <v>1106.244115676285</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.0001284239574217361</v>
       </c>
       <c r="E102" t="n">
-        <v>44.31984743905187</v>
+        <v>27.17783967109355</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11032.69155802732</v>
+        <v>11032.71914121254</v>
       </c>
       <c r="C103" t="n">
-        <v>1304.308435798939</v>
+        <v>1304.306732510516</v>
       </c>
       <c r="D103" t="n">
-        <v>6.938667296346199e-06</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>49.47093211057429</v>
+        <v>30.42783656738535</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12969.61068822481</v>
+        <v>12969.56223255743</v>
       </c>
       <c r="C104" t="n">
-        <v>1372.423723224833</v>
+        <v>1372.444532862045</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.02070034691019899</v>
       </c>
       <c r="E104" t="n">
-        <v>69.59545731709701</v>
+        <v>58.65079782436099</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14607.74255802136</v>
+        <v>14607.69169941006</v>
       </c>
       <c r="C105" t="n">
-        <v>1306.927194892753</v>
+        <v>1306.929564963576</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>668.2653425363194</v>
+        <v>634.9843941524174</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15438.59263960454</v>
+        <v>15438.57782986362</v>
       </c>
       <c r="C106" t="n">
-        <v>974.423885249805</v>
+        <v>974.4254379798614</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>102.2040710021273</v>
+        <v>91.21079624822293</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15791.63487368722</v>
+        <v>15791.62897323961</v>
       </c>
       <c r="C107" t="n">
-        <v>793.7962734167752</v>
+        <v>793.7966403187809</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>550.8623532883846</v>
+        <v>509.6597915198619</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15964.0656649389</v>
+        <v>15963.84363192151</v>
       </c>
       <c r="C108" t="n">
-        <v>727.1564303769933</v>
+        <v>727.1822959239287</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>106.584458139657</v>
+        <v>95.54256500599593</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15962.4665225523</v>
+        <v>15962.78635226428</v>
       </c>
       <c r="C109" t="n">
-        <v>688.5010370713487</v>
+        <v>688.4218076374051</v>
       </c>
       <c r="D109" t="n">
-        <v>0.03240797629384722</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>106.5237377908066</v>
+        <v>715.5642266776591</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15823.28511672103</v>
+        <v>15822.83163248111</v>
       </c>
       <c r="C110" t="n">
-        <v>656.1374304467515</v>
+        <v>656.1882801599852</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>103.8843052268413</v>
+        <v>92.88440820765867</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15741.55168397008</v>
+        <v>15741.60281176119</v>
       </c>
       <c r="C111" t="n">
-        <v>625.8273723043744</v>
+        <v>625.8245851912297</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>595.328689896783</v>
+        <v>507.049901037003</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15491.9636376538</v>
+        <v>15491.96707767287</v>
       </c>
       <c r="C112" t="n">
-        <v>681.0329867047049</v>
+        <v>681.0312599327115</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003372215485299681</v>
+        <v>0.001660733800620464</v>
       </c>
       <c r="E112" t="n">
-        <v>102.2455677533542</v>
+        <v>91.31135767333097</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15432.28422130672</v>
+        <v>15432.22576912342</v>
       </c>
       <c r="C113" t="n">
-        <v>661.7675444099275</v>
+        <v>661.7738456486563</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.0003848431646837844</v>
       </c>
       <c r="E113" t="n">
-        <v>102.1000397498635</v>
+        <v>91.10470366227615</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15327.95526124563</v>
+        <v>15327.99263624998</v>
       </c>
       <c r="C114" t="n">
-        <v>897.0301191967163</v>
+        <v>897.014590741263</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01460496444930082</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>101.717775467936</v>
+        <v>90.76095229767519</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15010.02541107112</v>
+        <v>15010.02238572987</v>
       </c>
       <c r="C115" t="n">
-        <v>1502.977804856848</v>
+        <v>1502.978092906813</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>73.83770384732432</v>
+        <v>61.67761408000295</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15680.12612415939</v>
+        <v>15680.05017426321</v>
       </c>
       <c r="C116" t="n">
-        <v>1321.932445795876</v>
+        <v>1321.944726805359</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.005093837842365095</v>
       </c>
       <c r="E116" t="n">
-        <v>103.1500188307988</v>
+        <v>92.10355189794345</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15867.84991572221</v>
+        <v>15867.85009915735</v>
       </c>
       <c r="C117" t="n">
-        <v>856.6856857820634</v>
+        <v>856.6856935746089</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>474.7326402019479</v>
+        <v>338.6669184838287</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15614.11794535709</v>
+        <v>15613.44604819888</v>
       </c>
       <c r="C118" t="n">
-        <v>467.5736169626035</v>
+        <v>467.7014309774506</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>469.9031269232922</v>
+        <v>92.00873736354407</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14786.95279349395</v>
+        <v>14786.91724452486</v>
       </c>
       <c r="C119" t="n">
-        <v>390.0891906298616</v>
+        <v>390.0868725315707</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001877729393282209</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>81.26179954625462</v>
+        <v>61.1996072952623</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13596.78758612495</v>
+        <v>13596.80597337927</v>
       </c>
       <c r="C120" t="n">
-        <v>276.2124035780556</v>
+        <v>276.2114349438785</v>
       </c>
       <c r="D120" t="n">
-        <v>1.034129116604233e-05</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>70.7736006060272</v>
+        <v>60.43144481060977</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12322.61586377441</v>
+        <v>12322.61489686683</v>
       </c>
       <c r="C121" t="n">
-        <v>277.3841360515009</v>
+        <v>277.3846189710267</v>
       </c>
       <c r="D121" t="n">
-        <v>1.075173547960927e-06</v>
+        <v>0.0004836785100431617</v>
       </c>
       <c r="E121" t="n">
-        <v>69.08226724766736</v>
+        <v>58.81514891231802</v>
       </c>
     </row>
     <row r="122">
@@ -2500,16 +2500,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11416.44943273368</v>
+        <v>11416.61176011126</v>
       </c>
       <c r="C122" t="n">
-        <v>272.469534592389</v>
+        <v>272.388245691509</v>
       </c>
       <c r="D122" t="n">
-        <v>0.08095173447978576</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>63.76460080308808</v>
+        <v>52.44772572323395</v>
       </c>
     </row>
     <row r="123">
@@ -2517,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>10832.77259332226</v>
+        <v>10832.77611804354</v>
       </c>
       <c r="C123" t="n">
-        <v>318.2256268629107</v>
+        <v>318.2238620521814</v>
       </c>
       <c r="D123" t="n">
-        <v>0.001778037020914879</v>
+        <v>1.988440652606381e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>44.49849517128042</v>
+        <v>28.93629802056564</v>
       </c>
     </row>
     <row r="124">
@@ -2534,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>10765.71573998305</v>
+        <v>10765.71261081239</v>
       </c>
       <c r="C124" t="n">
-        <v>88.28719652863266</v>
+        <v>88.28739556180821</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>46.19449641625521</v>
+        <v>28.74398701680137</v>
       </c>
     </row>
     <row r="125">
@@ -2551,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10727.99984312577</v>
+        <v>10728.00028180578</v>
       </c>
       <c r="C125" t="n">
-        <v>5.226556710017781e-05</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0001045041968388706</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>46.13416312318463</v>
+        <v>28.63572512617887</v>
       </c>
     </row>
     <row r="126">
@@ -2568,16 +2568,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10805.00001763137</v>
+        <v>10804.99999263537</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2.454617859739237e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>4.905107668199077e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>45.81438940302048</v>
+        <v>28.85715748655509</v>
       </c>
     </row>
     <row r="127">
@@ -2585,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11149.99999658466</v>
+        <v>11149.9999309926</v>
       </c>
       <c r="C127" t="n">
-        <v>1.141259568272436e-06</v>
+        <v>2.300028059743369e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>2.271817657477599e-06</v>
+        <v>4.596117485053356e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>48.00160538244194</v>
+        <v>30.5413191765414</v>
       </c>
     </row>
     <row r="128">
@@ -2602,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11858.99949438828</v>
+        <v>11859.00061908591</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0001684714834765964</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0003368035906994752</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>63.7605952064042</v>
+        <v>52.51627234502417</v>
       </c>
     </row>
     <row r="129">
@@ -2619,7 +2619,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13069.38349548055</v>
+        <v>13069.42394717571</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1922.267300238493</v>
+        <v>1575.425747796069</v>
       </c>
     </row>
     <row r="130">
@@ -2636,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14238.83440157503</v>
+        <v>14237.9971757061</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.000941892148204204</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.001880521355204616</v>
       </c>
       <c r="E130" t="n">
-        <v>669.344766612582</v>
+        <v>60.2137204105813</v>
       </c>
     </row>
     <row r="131">
@@ -2653,7 +2653,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15002.03190184603</v>
+        <v>15002.0094083543</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>101.8081205685463</v>
+        <v>63.54654285432728</v>
       </c>
     </row>
     <row r="132">
@@ -2670,16 +2670,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15235.99793108002</v>
+        <v>15236.01835213602</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0006894499241098866</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001378092272751417</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>102.3912564334993</v>
+        <v>91.3353928487832</v>
       </c>
     </row>
     <row r="133">
@@ -2687,7 +2687,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15213.14470611656</v>
+        <v>15213.15749266921</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1058.49000251758</v>
+        <v>903.4797539854233</v>
       </c>
     </row>
     <row r="134">
@@ -2704,16 +2704,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>14949.99946543048</v>
+        <v>14950.00024300797</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0001781102935716301</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0003561032455992748</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>74.07581088720187</v>
+        <v>61.93438368694477</v>
       </c>
     </row>
     <row r="135">
@@ -2721,16 +2721,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14625.99985181318</v>
+        <v>14625.99999317892</v>
       </c>
       <c r="C135" t="n">
-        <v>4.937686064561788e-05</v>
+        <v>2.27280863307665e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>9.871125414854273e-05</v>
+        <v>4.543721644044568e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>73.00114944930588</v>
+        <v>60.33308590699563</v>
       </c>
     </row>
     <row r="136">
@@ -2738,7 +2738,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14351.00012679299</v>
+        <v>14351.00000620789</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>71.28026446928148</v>
+        <v>59.56536127395081</v>
       </c>
     </row>
     <row r="137">
@@ -2755,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>14233.99998371313</v>
+        <v>14233.9999990296</v>
       </c>
       <c r="C137" t="n">
-        <v>5.426269798122791e-06</v>
+        <v>3.23452006917228e-07</v>
       </c>
       <c r="D137" t="n">
-        <v>1.084976484290876e-05</v>
+        <v>6.463004844980858e-07</v>
       </c>
       <c r="E137" t="n">
-        <v>70.90472790016517</v>
+        <v>59.28638350876425</v>
       </c>
     </row>
     <row r="138">
@@ -2772,16 +2772,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>14405.67677100089</v>
+        <v>14405.67557423627</v>
       </c>
       <c r="C138" t="n">
-        <v>76.32429543818196</v>
+        <v>76.32442781422334</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>71.46617002683205</v>
+        <v>59.69580261011878</v>
       </c>
     </row>
     <row r="139">
@@ -2789,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14718.12562978433</v>
+        <v>14717.8754467762</v>
       </c>
       <c r="C139" t="n">
-        <v>266.1039091389289</v>
+        <v>266.1246510654653</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>82.13839841132956</v>
+        <v>60.64814865076141</v>
       </c>
     </row>
     <row r="140">
@@ -2806,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>14956.99673290381</v>
+        <v>14957.01940372968</v>
       </c>
       <c r="C140" t="n">
-        <v>673.9923197549979</v>
+        <v>673.9812232650947</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01093640545520705</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>101.7168067702178</v>
+        <v>90.74030683348721</v>
       </c>
     </row>
     <row r="141">
@@ -2823,16 +2823,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>14601.74729547003</v>
+        <v>14601.62467121966</v>
       </c>
       <c r="C141" t="n">
-        <v>892.3544372304569</v>
+        <v>892.3754582426407</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>101.8380279867556</v>
+        <v>61.46066737626249</v>
       </c>
     </row>
     <row r="142">
@@ -2840,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>14124.98590474742</v>
+        <v>14124.96141446039</v>
       </c>
       <c r="C142" t="n">
-        <v>844.0366135888219</v>
+        <v>844.0385806363965</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>4.898266554063796e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>71.64003178140609</v>
+        <v>90.65678259357799</v>
       </c>
     </row>
     <row r="143">
@@ -2857,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>13320.28068949234</v>
+        <v>13320.28772269772</v>
       </c>
       <c r="C143" t="n">
-        <v>877.7158119152105</v>
+        <v>877.7123021162693</v>
       </c>
       <c r="D143" t="n">
-        <v>0.003495097809537623</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>70.44727143853717</v>
+        <v>60.23803498364337</v>
       </c>
     </row>
     <row r="144">
@@ -2874,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12388.18974917908</v>
+        <v>12388.1673498806</v>
       </c>
       <c r="C144" t="n">
-        <v>790.8311754344184</v>
+        <v>790.8326480621317</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>2.055201981674376e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>70.20596608519853</v>
+        <v>59.20455707838737</v>
       </c>
     </row>
     <row r="145">
@@ -2891,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11366.41944631658</v>
+        <v>11366.41925595155</v>
       </c>
       <c r="C145" t="n">
-        <v>752.5807338378177</v>
+        <v>752.5807440242486</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>2.4161667362919e-08</v>
       </c>
       <c r="E145" t="n">
-        <v>51.10596572116965</v>
+        <v>40.107949913574</v>
       </c>
     </row>
     <row r="146">
@@ -2908,16 +2908,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10648.51180739014</v>
+        <v>10648.51179641438</v>
       </c>
       <c r="C146" t="n">
-        <v>548.4881873392113</v>
+        <v>548.488192832586</v>
       </c>
       <c r="D146" t="n">
-        <v>5.265444577614863e-06</v>
+        <v>1.074229756316296e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>47.63557752522578</v>
+        <v>29.05274715163949</v>
       </c>
     </row>
     <row r="147">
@@ -2925,16 +2925,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9515.036508183282</v>
+        <v>9515.036519897345</v>
       </c>
       <c r="C147" t="n">
-        <v>587.9634856555163</v>
+        <v>587.9634798551015</v>
       </c>
       <c r="D147" t="n">
-        <v>7.374616120322008e-06</v>
+        <v>1.756563500975593e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>40.79886050825936</v>
+        <v>25.68827923773594</v>
       </c>
     </row>
     <row r="148">
@@ -2942,16 +2942,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9932.029497456368</v>
+        <v>9932.029667161338</v>
       </c>
       <c r="C148" t="n">
-        <v>678.9705074514093</v>
+        <v>678.9704948270228</v>
       </c>
       <c r="D148" t="n">
-        <v>1.457170127297784e-06</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>44.41450811146139</v>
+        <v>26.54174877604672</v>
       </c>
     </row>
     <row r="149">
@@ -2959,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9511.88268979962</v>
+        <v>9511.882311218311</v>
       </c>
       <c r="C149" t="n">
-        <v>814.1176963674941</v>
+        <v>814.1177201448666</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>41.53820409245357</v>
+        <v>25.75288836918933</v>
       </c>
     </row>
     <row r="150">
@@ -2976,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9796.903037656561</v>
+        <v>9796.902054876817</v>
       </c>
       <c r="C150" t="n">
-        <v>465.0978735237454</v>
+        <v>465.0979387813795</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>6.812202902011278e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>44.31764350674486</v>
+        <v>26.25704233350066</v>
       </c>
     </row>
     <row r="151">
@@ -2993,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9384.062247202795</v>
+        <v>9384.060441200494</v>
       </c>
       <c r="C151" t="n">
-        <v>996.9394566512336</v>
+        <v>996.9395641092183</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>2.524258570815184e-07</v>
       </c>
       <c r="E151" t="n">
-        <v>40.83432334807239</v>
+        <v>25.55483159288659</v>
       </c>
     </row>
     <row r="152">
@@ -3010,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9479.458164878459</v>
+        <v>9479.458571648807</v>
       </c>
       <c r="C152" t="n">
-        <v>1197.541622871113</v>
+        <v>1197.541419046463</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0002120384366167352</v>
+        <v>9.295428821850365e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>40.69118167794868</v>
+        <v>25.70323684150081</v>
       </c>
     </row>
     <row r="153">
@@ -3027,16 +3027,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9914.601159986756</v>
+        <v>9914.589073925785</v>
       </c>
       <c r="C153" t="n">
-        <v>1259.411372800043</v>
+        <v>1259.412104257658</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>43.94665420140599</v>
+        <v>26.33318535964614</v>
       </c>
     </row>
     <row r="154">
@@ -3044,16 +3044,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11032.41942137441</v>
+        <v>11032.41126039416</v>
       </c>
       <c r="C154" t="n">
-        <v>1027.610210507546</v>
+        <v>1027.61047392244</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1260.897977196253</v>
+        <v>1429.519976650249</v>
       </c>
     </row>
     <row r="155">
@@ -3061,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12275.46205271701</v>
+        <v>12275.03709293988</v>
       </c>
       <c r="C155" t="n">
-        <v>679.9611841570634</v>
+        <v>679.9894937387737</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>69.51481449169781</v>
+        <v>58.48133782360095</v>
       </c>
     </row>
     <row r="156">
@@ -3078,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13140.03978922155</v>
+        <v>13139.20909867088</v>
       </c>
       <c r="C156" t="n">
-        <v>454.7002374925063</v>
+        <v>454.7903918954684</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>0.0005089247965721326</v>
       </c>
       <c r="E156" t="n">
-        <v>1756.916137776407</v>
+        <v>58.84826594534014</v>
       </c>
     </row>
     <row r="157">
@@ -3095,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13761.63262735558</v>
+        <v>13761.64197713414</v>
       </c>
       <c r="C157" t="n">
-        <v>200.3638275196074</v>
+        <v>200.3600862270288</v>
       </c>
       <c r="D157" t="n">
-        <v>0.003541584304857212</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>70.50082546090023</v>
+        <v>59.50216164350615</v>
       </c>
     </row>
     <row r="158">
@@ -3112,7 +3112,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14101.87873692089</v>
+        <v>14101.86869070881</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>353.1184837368539</v>
+        <v>323.1355078182046</v>
       </c>
     </row>
     <row r="159">
@@ -3129,16 +3129,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>14043.99911452927</v>
+        <v>14043.9999756705</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0002951023598295799</v>
+        <v>8.130318510207694e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0005897788159292076</v>
+        <v>1.618299339331633e-05</v>
       </c>
       <c r="E159" t="n">
-        <v>70.84055714766492</v>
+        <v>59.8428708471119</v>
       </c>
     </row>
     <row r="160">
@@ -3146,7 +3146,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13897.00192674679</v>
+        <v>13897.00072817723</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>70.69981894815544</v>
+        <v>59.70252601811571</v>
       </c>
     </row>
     <row r="161">
@@ -3163,16 +3163,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13818.00326883889</v>
+        <v>13817.99996944477</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1.249721568589017e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2.494652619309514e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>70.51011378343794</v>
+        <v>59.51307462184171</v>
       </c>
     </row>
     <row r="162">
@@ -3180,16 +3180,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>14043.99892551362</v>
+        <v>14043.99994759056</v>
       </c>
       <c r="C162" t="n">
-        <v>0.000358065859172069</v>
+        <v>1.747769508608341e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0007157050264607539</v>
+        <v>3.489685414271666e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>70.7086264253408</v>
+        <v>59.43201943767876</v>
       </c>
     </row>
     <row r="163">
@@ -3197,7 +3197,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>14535.00650099764</v>
+        <v>14535.00264330389</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>93.53201299143416</v>
+        <v>60.2241665722444</v>
       </c>
     </row>
     <row r="164">
@@ -3214,7 +3214,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>14997.09755640665</v>
+        <v>14997.20816818832</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>82.56785925812926</v>
+        <v>90.73963780628029</v>
       </c>
     </row>
     <row r="165">
@@ -3231,16 +3231,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15633.9966675628</v>
+        <v>15633.98227612787</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001110360482955434</v>
+        <v>0.005904869607486826</v>
       </c>
       <c r="D165" t="n">
-        <v>0.002219857193021295</v>
+        <v>0.01180719571924632</v>
       </c>
       <c r="E165" t="n">
-        <v>103.4384026811936</v>
+        <v>92.42993334873974</v>
       </c>
     </row>
     <row r="166">
@@ -3248,7 +3248,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15558.80731890205</v>
+        <v>15558.83103925531</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>157.4104819542996</v>
+        <v>101.0431128077376</v>
       </c>
     </row>
     <row r="167">
@@ -3265,16 +3265,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>14649.99994584145</v>
+        <v>14649.99955728924</v>
       </c>
       <c r="C167" t="n">
-        <v>1.80447613240643e-05</v>
+        <v>0.0001475272162423529</v>
       </c>
       <c r="D167" t="n">
-        <v>3.607772790088026e-05</v>
+        <v>0.0002948886954234171</v>
       </c>
       <c r="E167" t="n">
-        <v>73.05043455118923</v>
+        <v>62.04758059837528</v>
       </c>
     </row>
     <row r="168">
@@ -3282,16 +3282,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13469.99970315268</v>
+        <v>13470.0009889921</v>
       </c>
       <c r="C168" t="n">
-        <v>9.890973168740416e-05</v>
+        <v>2.437540952352811e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0001977398658615726</v>
+        <v>4.872772707841162e-05</v>
       </c>
       <c r="E168" t="n">
-        <v>70.53755662983244</v>
+        <v>60.1145648996823</v>
       </c>
     </row>
     <row r="169">
@@ -3299,16 +3299,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12277.99999459196</v>
+        <v>12278.00022567947</v>
       </c>
       <c r="C169" t="n">
-        <v>1.802312301153734e-06</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>3.602108615612575e-06</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>101.2517086268775</v>
+        <v>90.25370667096684</v>
       </c>
     </row>
   </sheetData>
